--- a/ref/cocvuong2023/Thong-tin-DOI-KHANG-CHUAN_cocvuong2023.xlsx
+++ b/ref/cocvuong2023/Thong-tin-DOI-KHANG-CHUAN_cocvuong2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Project\cocvuong.com\ref\cocvuong2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FD7FBD-CC05-4B91-9DFA-5C6ACD3C6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -292,9 +298,6 @@
     <t>Dương Viết Huy</t>
   </si>
   <si>
-    <t>se184528</t>
-  </si>
-  <si>
     <t>Nguyễn Hồ Hải Đăng</t>
   </si>
   <si>
@@ -751,9 +754,6 @@
     <t>Vương Trần Quang Thắng</t>
   </si>
   <si>
-    <t>Ss181133</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Nhật Tân</t>
   </si>
   <si>
@@ -778,9 +778,6 @@
     <t>Nguyễn Đức Hoàng</t>
   </si>
   <si>
-    <t>Se184443</t>
-  </si>
-  <si>
     <t>Ngô Chí Kiên</t>
   </si>
   <si>
@@ -952,9 +949,6 @@
     <t>Phan Phú Tuấn</t>
   </si>
   <si>
-    <t>Se181658</t>
-  </si>
-  <si>
     <t>Mai Thế Phú</t>
   </si>
   <si>
@@ -1015,18 +1009,12 @@
     <t>Nguyễn Thanh Danh</t>
   </si>
   <si>
-    <t>Se182889</t>
-  </si>
-  <si>
     <t>Trên 83kg nam</t>
   </si>
   <si>
     <t>Lê Trần Minh Đạt</t>
   </si>
   <si>
-    <t>Se170095</t>
-  </si>
-  <si>
     <t>Vòng Tải Đông</t>
   </si>
   <si>
@@ -1123,9 +1111,6 @@
     <t>Bùi Tấn Tài</t>
   </si>
   <si>
-    <t>Se184415</t>
-  </si>
-  <si>
     <t>W.90</t>
   </si>
   <si>
@@ -1270,9 +1255,6 @@
     <t>Phạm Thanh Hiền</t>
   </si>
   <si>
-    <t>Se170031</t>
-  </si>
-  <si>
     <t>W.25</t>
   </si>
   <si>
@@ -1565,12 +1547,36 @@
   </si>
   <si>
     <t>W.138</t>
+  </si>
+  <si>
+    <t>SE170095</t>
+  </si>
+  <si>
+    <t>SE184443</t>
+  </si>
+  <si>
+    <t>SE184415</t>
+  </si>
+  <si>
+    <t>SE181658</t>
+  </si>
+  <si>
+    <t>SE182889</t>
+  </si>
+  <si>
+    <t>SE170031</t>
+  </si>
+  <si>
+    <t>SS181133</t>
+  </si>
+  <si>
+    <t>SE184528</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1607,10 +1613,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1620,6 +1625,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1946,20 +1954,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1988,152 +1996,152 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>223</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>224</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>225</v>
       </c>
-      <c r="H2" t="s">
-        <v>226</v>
-      </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
         <v>227</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>228</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>229</v>
       </c>
-      <c r="H3" t="s">
-        <v>230</v>
-      </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>509</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
         <v>334</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" t="s">
-        <v>340</v>
-      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2301,13 +2309,13 @@
         <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>516</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2318,1185 +2326,1185 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>94</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>114</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>115</v>
       </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>119</v>
       </c>
-      <c r="H15" t="s">
-        <v>120</v>
-      </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>123</v>
       </c>
-      <c r="H16" t="s">
-        <v>124</v>
-      </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
         <v>125</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>127</v>
       </c>
-      <c r="H17" t="s">
-        <v>128</v>
-      </c>
       <c r="I17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
         <v>129</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>131</v>
       </c>
-      <c r="H18" t="s">
-        <v>132</v>
-      </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
         <v>133</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>135</v>
       </c>
-      <c r="H19" t="s">
-        <v>136</v>
-      </c>
       <c r="I19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
       <c r="I20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>156</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>157</v>
       </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>158</v>
       </c>
-      <c r="H21" t="s">
-        <v>159</v>
-      </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
         <v>160</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>162</v>
       </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>166</v>
       </c>
-      <c r="H23" t="s">
-        <v>167</v>
-      </c>
       <c r="I23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>181</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>182</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
         <v>183</v>
       </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>184</v>
       </c>
-      <c r="H24" t="s">
-        <v>185</v>
-      </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
         <v>186</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>187</v>
       </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>188</v>
       </c>
-      <c r="H25" t="s">
-        <v>189</v>
-      </c>
       <c r="I25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="s">
         <v>190</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
         <v>191</v>
       </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>192</v>
       </c>
-      <c r="H26" t="s">
-        <v>193</v>
-      </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" t="s">
         <v>194</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
         <v>195</v>
       </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>196</v>
       </c>
-      <c r="H27" t="s">
-        <v>197</v>
-      </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
         <v>198</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>199</v>
       </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>200</v>
       </c>
-      <c r="H28" t="s">
-        <v>201</v>
-      </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
         <v>202</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
         <v>203</v>
       </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
       </c>
-      <c r="H29" t="s">
-        <v>205</v>
-      </c>
       <c r="I29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>208</v>
       </c>
-      <c r="H30" t="s">
-        <v>209</v>
-      </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
         <v>210</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
         <v>211</v>
       </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="H31" t="s">
-        <v>213</v>
-      </c>
       <c r="I31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
         <v>269</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>270</v>
       </c>
-      <c r="E32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>272</v>
-      </c>
-      <c r="H32" t="s">
-        <v>273</v>
-      </c>
       <c r="I32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" t="s">
         <v>274</v>
       </c>
-      <c r="E33" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s">
-        <v>276</v>
-      </c>
-      <c r="H33" t="s">
-        <v>277</v>
-      </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>277</v>
+      </c>
+      <c r="H34" t="s">
         <v>278</v>
       </c>
-      <c r="E34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>280</v>
-      </c>
-      <c r="H34" t="s">
-        <v>281</v>
-      </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" t="s">
         <v>282</v>
       </c>
-      <c r="E35" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>284</v>
-      </c>
-      <c r="H35" t="s">
-        <v>285</v>
-      </c>
       <c r="I35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" t="s">
         <v>286</v>
       </c>
-      <c r="E36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>288</v>
-      </c>
-      <c r="H36" t="s">
-        <v>289</v>
-      </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H37" t="s">
         <v>290</v>
       </c>
-      <c r="E37" t="s">
-        <v>291</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H37" t="s">
-        <v>293</v>
-      </c>
       <c r="I37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" t="s">
         <v>231</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
         <v>232</v>
       </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>233</v>
       </c>
-      <c r="H38" t="s">
-        <v>234</v>
-      </c>
       <c r="I38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" t="s">
         <v>235</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
         <v>236</v>
       </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>237</v>
       </c>
-      <c r="H39" t="s">
-        <v>238</v>
-      </c>
       <c r="I39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" t="s">
         <v>239</v>
       </c>
-      <c r="E40" t="s">
-        <v>240</v>
-      </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" t="s">
         <v>242</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
         <v>243</v>
       </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>244</v>
-      </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
         <v>249</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>250</v>
       </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>251</v>
-      </c>
-      <c r="H43" t="s">
-        <v>252</v>
-      </c>
       <c r="I43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>252</v>
+      </c>
+      <c r="H44" t="s">
         <v>253</v>
       </c>
-      <c r="E44" t="s">
-        <v>254</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>255</v>
-      </c>
-      <c r="H44" t="s">
-        <v>256</v>
-      </c>
       <c r="I44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" t="s">
         <v>257</v>
       </c>
-      <c r="E45" t="s">
-        <v>258</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>259</v>
-      </c>
-      <c r="H45" t="s">
-        <v>260</v>
-      </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E46" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H46" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H47" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E49" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H49" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E50" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H50" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H51" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E52" t="s">
-        <v>369</v>
+        <v>511</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E53" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H53" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3554,7 +3562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3699,7 +3707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3728,7 +3736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3873,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3884,25 +3892,25 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" t="s">
         <v>97</v>
       </c>
-      <c r="E67" t="s">
-        <v>98</v>
-      </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3913,25 +3921,25 @@
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3942,25 +3950,25 @@
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3971,983 +3979,982 @@
         <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
         <v>107</v>
       </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>108</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
         <v>109</v>
       </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>110</v>
       </c>
-      <c r="H71" t="s">
-        <v>111</v>
-      </c>
       <c r="I71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" t="s">
         <v>141</v>
       </c>
-      <c r="E72" t="s">
-        <v>142</v>
-      </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="s">
         <v>100</v>
       </c>
-      <c r="F73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" t="s">
-        <v>101</v>
-      </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
         <v>102</v>
       </c>
-      <c r="E74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" t="s">
-        <v>103</v>
-      </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
         <v>104</v>
       </c>
-      <c r="E75" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" t="s">
-        <v>105</v>
-      </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
         <v>150</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>151</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
         <v>152</v>
       </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>153</v>
       </c>
-      <c r="H76" t="s">
-        <v>154</v>
-      </c>
       <c r="I76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" t="s">
         <v>168</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
         <v>169</v>
       </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>170</v>
       </c>
-      <c r="H77" t="s">
-        <v>171</v>
-      </c>
       <c r="I77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" t="s">
         <v>173</v>
       </c>
-      <c r="H78" t="s">
-        <v>174</v>
-      </c>
       <c r="I78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
         <v>175</v>
       </c>
-      <c r="E79" t="s">
-        <v>176</v>
-      </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" t="s">
         <v>179</v>
       </c>
-      <c r="H80" t="s">
-        <v>180</v>
-      </c>
       <c r="I80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G81" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" t="s">
         <v>144</v>
       </c>
-      <c r="E83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" t="s">
-        <v>145</v>
-      </c>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" t="s">
         <v>146</v>
       </c>
-      <c r="E84" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
-        <v>147</v>
-      </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
         <v>177</v>
       </c>
-      <c r="E86" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s">
-        <v>178</v>
-      </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G87" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E89" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G92" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H92" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>302</v>
+      </c>
+      <c r="E93" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="C93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="H93" t="s">
         <v>305</v>
       </c>
-      <c r="E93" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
-        <v>307</v>
-      </c>
-      <c r="H93" t="s">
-        <v>308</v>
-      </c>
       <c r="I93" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H94" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="I94" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H95" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I95" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E96" t="s">
+        <v>315</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>316</v>
+      </c>
+      <c r="H96" t="s">
         <v>317</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>318</v>
-      </c>
-      <c r="E96" t="s">
-        <v>319</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>320</v>
-      </c>
-      <c r="H96" t="s">
-        <v>321</v>
-      </c>
       <c r="I96" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E97" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I97" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H98" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E99" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H99" t="s">
-        <v>333</v>
+        <v>513</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="s">
+        <v>213</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
         <v>214</v>
       </c>
-      <c r="E100" t="s">
-        <v>100</v>
-      </c>
-      <c r="F100" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" t="s">
-        <v>215</v>
-      </c>
       <c r="H100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
         <v>216</v>
       </c>
-      <c r="E101" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" t="s">
-        <v>217</v>
-      </c>
       <c r="H101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" t="s">
         <v>218</v>
       </c>
-      <c r="E102" t="s">
-        <v>100</v>
-      </c>
-      <c r="F102" t="s">
-        <v>100</v>
-      </c>
-      <c r="G102" t="s">
-        <v>219</v>
-      </c>
       <c r="H102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
+        <v>219</v>
+      </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" t="s">
         <v>220</v>
       </c>
-      <c r="E103" t="s">
-        <v>100</v>
-      </c>
-      <c r="F103" t="s">
-        <v>100</v>
-      </c>
-      <c r="G103" t="s">
-        <v>221</v>
-      </c>
       <c r="H103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I103" t="s">
-        <v>100</v>
-      </c>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4955,28 +4962,28 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D104" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G104" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4984,28 +4991,28 @@
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G105" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5013,28 +5020,28 @@
         <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5042,29 +5049,28 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G107" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I107" t="s">
-        <v>100</v>
-      </c>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5072,28 +5078,28 @@
         <v>45</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E108" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H108" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5101,28 +5107,28 @@
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G109" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H109" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5130,28 +5136,28 @@
         <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E110" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I110" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5159,28 +5165,28 @@
         <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G111" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H111" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I111" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5188,28 +5194,28 @@
         <v>59</v>
       </c>
       <c r="C112" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D112" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E112" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5217,28 +5223,28 @@
         <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G113" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H113" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I113" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5246,28 +5252,28 @@
         <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D114" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G114" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5275,729 +5281,728 @@
         <v>68</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D115" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G115" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I115" t="s">
-        <v>100</v>
-      </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E116" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H116" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="I116" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C117" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G117" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H117" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I117" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G118" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I118" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D119" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G119" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I119" t="s">
-        <v>100</v>
-      </c>
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D120" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H120" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="I120" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G121" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H121" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G122" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I122" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G123" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I123" t="s">
-        <v>100</v>
-      </c>
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D124" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E124" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H124" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I124" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" t="s">
+        <v>376</v>
+      </c>
+      <c r="D125" t="s">
+        <v>434</v>
+      </c>
+      <c r="E125" t="s">
+        <v>435</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>436</v>
+      </c>
+      <c r="H125" t="s">
         <v>437</v>
       </c>
-      <c r="C125" t="s">
-        <v>383</v>
-      </c>
-      <c r="D125" t="s">
-        <v>442</v>
-      </c>
-      <c r="E125" t="s">
-        <v>443</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>444</v>
-      </c>
-      <c r="H125" t="s">
-        <v>445</v>
-      </c>
       <c r="I125" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D126" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G126" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I126" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C127" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D127" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G127" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I127" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D128" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G128" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I128" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D129" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G129" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I129" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D130" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I130" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G131" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I131" t="s">
-        <v>100</v>
-      </c>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C132" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D132" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E132" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I132" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C133" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G133" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I133" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C134" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G134" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I134" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D135" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G135" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I135" t="s">
-        <v>100</v>
-      </c>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C136" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D136" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E136" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H136" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="I136" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137" t="s">
+        <v>376</v>
+      </c>
+      <c r="D137" t="s">
+        <v>464</v>
+      </c>
+      <c r="E137" t="s">
+        <v>465</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>466</v>
+      </c>
+      <c r="H137" t="s">
         <v>467</v>
       </c>
-      <c r="C137" t="s">
-        <v>383</v>
-      </c>
-      <c r="D137" t="s">
-        <v>472</v>
-      </c>
-      <c r="E137" t="s">
-        <v>473</v>
-      </c>
-      <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s">
-        <v>474</v>
-      </c>
-      <c r="H137" t="s">
-        <v>475</v>
-      </c>
       <c r="I137" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D138" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G138" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I138" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D139" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G139" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I139" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6005,28 +6010,28 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D140" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G140" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I140" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6034,28 +6039,28 @@
         <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D141" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G141" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I141" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6063,28 +6068,28 @@
         <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D142" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G142" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H142" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I142" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6092,28 +6097,28 @@
         <v>50</v>
       </c>
       <c r="C143" t="s">
+        <v>472</v>
+      </c>
+      <c r="D143" t="s">
+        <v>479</v>
+      </c>
+      <c r="E143" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" t="s">
+        <v>99</v>
+      </c>
+      <c r="G143" t="s">
         <v>480</v>
       </c>
-      <c r="D143" t="s">
-        <v>487</v>
-      </c>
-      <c r="E143" t="s">
-        <v>100</v>
-      </c>
-      <c r="F143" t="s">
-        <v>100</v>
-      </c>
-      <c r="G143" t="s">
-        <v>488</v>
-      </c>
       <c r="H143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I143" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6121,28 +6126,28 @@
         <v>59</v>
       </c>
       <c r="C144" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D144" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G144" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="H144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I144" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6150,382 +6155,380 @@
         <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D145" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G145" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I145" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C146" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G146" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I146" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D147" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G147" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I147" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D148" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G148" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="H148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I148" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G149" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I149" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C150" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D150" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G150" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I150" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C151" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D151" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G151" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H151" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I151" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D152" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E152" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F152" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G152" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H152" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I152" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C153" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D153" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G153" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H153" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I153" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D154" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="E154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G154" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I154" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D155" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G155" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I155" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C156" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D156" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G156" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H156" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I156" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C157" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D157" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G157" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H157" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I157" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.6" x14ac:dyDescent="0.3"/>
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B54:I66 A1:I1 B88:C88 B108:I108 B71:I71 B76:I76 B77:I77 B84:C84 B93:I99 B67:F67 H67:I67 B68:C68 E68:F68 H68:I68 B69:C69 E69:F69 H69:I69 B70:C70 E70:F70 H70:I70 B72:F72 H72:I72 B73:C73 E73:F73 H73:I73 B74:C74 E74:F74 H74:I74 B75:C75 E75:F75 H75:I75 B80:C80 B78:C78 E78:I78 B79:F79 H79:I79 E80:I80 B81:C81 E81:F81 H81:I81 B82:C82 E82:F82 H82:I82 B83:C83 H83:I83 E83:F83 E84:F84 H84:I84 B85:C85 E85:F85 H85:I85 B86:C86 E86:F86 H86:I86 B87:C87 E87:F87 H87:I87 E88:F88 H88:I88 B89:F89 H89:I89 B90:C90 E90:F90 H90:I90 B91:C91 E91:F91 H91:I91 B92:C92 E92:I92 B100:C100 E100:F100 H100:I100 B101:C101 E101:F101 H101:I101 B102:C102 E102:F102 H102:I102 B103:C103 E103:F103 H103:I103 B104:C104 E104:F104 H104:I104 B105:C105 E105:F105 H105:I105 B106:C106 E106:F106 H106:I106 B107:C107 E107:F107 H107:I107 B116:I116 B109:C109 E109:I109 B110:F110 H110:I110 B111:C111 E111:I111 B112:F112 H112:I112 B113:C113 E113:I113 B114:C114 E114:F114 H114:I114 B115:C115 E115:F115 H115:I115 B120:I120 B117:C117 E117:I117 B118:C118 E118:F118 H118:I118 B119:C119 E119:F119 H119:I119 B124:I125 B121:C121 E121:I121 B122:C122 E122:F122 H122:I122 B123:C123 E123:F123 H123:I123 B136:I157 B126:C126 E126:F126 H126:I126 B127:C127 E127:F127 H127:I127 B128:C128 E128:F128 H128:I128 B129:C129 E129:F129 H129:I129 B130:C130 E130:F130 H130:I130 B131:C131 E131:F131 H131:I131 B132:F132 H132:I132 B133:C133 E133:F133 H133:I133 B134:C134 E134:F134 H134:I134 B135:C135 E135:F135 H135:I135" numberStoredAsText="1"/>
+    <ignoredError sqref="B54:I66 A1:I1 B88:C88 B108:I108 B71:I71 B76:I76 B77:I77 B84:C84 B93:I93 B67:F67 H67:I67 B68:C68 E68:F68 H68:I68 B69:C69 E69:F69 H69:I69 B70:C70 E70:F70 H70:I70 B72:F72 H72:I72 B73:C73 E73:F73 H73:I73 B74:C74 E74:F74 H74:I74 B75:C75 E75:F75 H75:I75 B80:C80 B78:C78 E78:I78 B79:F79 H79:I79 E80:I80 B81:C81 E81:F81 H81:I81 B82:C82 E82:F82 H82:I82 B83:C83 H83:I83 E83:F83 E84:F84 H84:I84 B85:C85 E85:F85 H85:I85 B86:C86 E86:F86 H86:I86 B87:C87 E87:F87 H87:I87 E88:F88 H88:I88 B89:F89 H89:I89 B90:C90 E90:F90 H90:I90 B91:C91 E91:F91 H91:I91 B92:C92 E92:I92 B100:C100 E100:F100 H100:I100 B101:C101 E101:F101 H101:I101 B102:C102 E102:F102 H102:I102 B103:C103 E103:F103 H103:I103 B104:C104 E104:F104 H104:I104 B105:C105 E105:F105 H105:I105 B106:C106 E106:F106 H106:I106 B107:C107 E107:F107 H107:I107 B116:G116 B109:C109 E109:I109 B110:F110 H110:I110 B111:C111 E111:I111 B112:F112 H112:I112 B113:C113 E113:I113 B114:C114 E114:F114 H114:I114 B115:C115 E115:F115 H115:I115 B120:I120 B117:C117 E117:I117 B118:C118 E118:F118 H118:I118 B119:C119 E119:F119 H119:I119 B124:I125 B121:C121 E121:I121 B122:C122 E122:F122 H122:I122 B123:C123 E123:F123 H123:I123 B136:I157 B126:C126 E126:F126 H126:I126 B127:C127 E127:F127 H127:I127 B128:C128 E128:F128 H128:I128 B129:C129 E129:F129 H129:I129 B130:C130 E130:F130 H130:I130 B131:C131 E131:F131 H131:I131 B132:F132 H132:I132 B133:C133 E133:F133 H133:I133 B134:C134 E134:F134 H134:I134 B135:C135 E135:F135 H135:I135 B95:I98 B94:G94 I94 B99:G99 I99 I116" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>